--- a/Tuan 3/Test-cases.xlsx
+++ b/Tuan 3/Test-cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Báo cáo\ThayTheTotNghiep\ThayTheTotNghiep\BaoCao_WatchStore\Tuan 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896FB9AE-DA07-43E1-BD93-A873DAF30D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08D97F2-8914-46A8-BBB4-24CDD56A8D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2844,9 +2844,285 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2855,282 +3131,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3549,8 +3549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H230"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A218" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F228" sqref="F228"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A98" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="L103" sqref="L103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3567,31 +3567,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:8" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="78" t="s">
+    <row r="2" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="80" t="s">
+      <c r="E2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="80" t="s">
+      <c r="F2" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="G2" s="80" t="s">
+      <c r="G2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="81" t="s">
+      <c r="H2" s="53" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B3" s="82">
+      <c r="B3" s="54">
         <v>1</v>
       </c>
       <c r="C3" s="32" t="s">
@@ -3601,10 +3601,10 @@
       <c r="E3" s="33"/>
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
-      <c r="H3" s="83"/>
+      <c r="H3" s="55"/>
     </row>
     <row r="4" spans="2:8" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B4" s="84">
+      <c r="B4" s="56">
         <v>1.1000000000000001</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -3620,10 +3620,10 @@
       <c r="G4" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="H4" s="85"/>
+      <c r="H4" s="57"/>
     </row>
     <row r="5" spans="2:8" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="84">
+      <c r="B5" s="56">
         <v>1.2</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -3639,10 +3639,10 @@
       <c r="G5" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="H5" s="85"/>
+      <c r="H5" s="57"/>
     </row>
     <row r="6" spans="2:8" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B6" s="84">
+      <c r="B6" s="56">
         <v>1.3</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -3658,10 +3658,10 @@
       <c r="G6" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H6" s="85"/>
+      <c r="H6" s="57"/>
     </row>
     <row r="7" spans="2:8" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="84">
+      <c r="B7" s="56">
         <v>1.4</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -3677,10 +3677,10 @@
       <c r="G7" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H7" s="85"/>
+      <c r="H7" s="57"/>
     </row>
     <row r="8" spans="2:8" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B8" s="84">
+      <c r="B8" s="56">
         <v>1.5</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -3696,10 +3696,10 @@
       <c r="G8" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="H8" s="85"/>
+      <c r="H8" s="57"/>
     </row>
     <row r="9" spans="2:8" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B9" s="84">
+      <c r="B9" s="56">
         <v>1.6</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -3715,16 +3715,16 @@
       <c r="G9" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="H9" s="85"/>
+      <c r="H9" s="57"/>
     </row>
     <row r="10" spans="2:8" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B10" s="84">
+      <c r="B10" s="56">
         <v>1.7</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D10" s="86" t="s">
+      <c r="D10" s="58" t="s">
         <v>122</v>
       </c>
       <c r="E10" s="4"/>
@@ -3734,10 +3734,10 @@
       <c r="G10" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="H10" s="85"/>
+      <c r="H10" s="57"/>
     </row>
     <row r="11" spans="2:8" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="B11" s="84">
+      <c r="B11" s="56">
         <v>1.8</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -3753,10 +3753,10 @@
       <c r="G11" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="H11" s="85"/>
+      <c r="H11" s="57"/>
     </row>
     <row r="12" spans="2:8" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B12" s="84">
+      <c r="B12" s="56">
         <v>1.9</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -3772,10 +3772,10 @@
       <c r="G12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="85"/>
+      <c r="H12" s="57"/>
     </row>
     <row r="13" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="87">
+      <c r="B13" s="59">
         <v>1.1000000000000001</v>
       </c>
       <c r="C13" s="30" t="s">
@@ -3791,19 +3791,19 @@
       <c r="G13" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="88"/>
+      <c r="H13" s="60"/>
     </row>
     <row r="14" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="89"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="91"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="63"/>
     </row>
     <row r="15" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="92">
+      <c r="B15" s="64">
         <v>2</v>
       </c>
       <c r="C15" s="32" t="s">
@@ -3813,13 +3813,13 @@
       <c r="E15" s="26"/>
       <c r="F15" s="26"/>
       <c r="G15" s="38"/>
-      <c r="H15" s="93"/>
+      <c r="H15" s="65"/>
     </row>
     <row r="16" spans="2:8" ht="60" x14ac:dyDescent="0.2">
-      <c r="B16" s="84">
+      <c r="B16" s="56">
         <v>2.1</v>
       </c>
-      <c r="C16" s="60" t="s">
+      <c r="C16" s="97" t="s">
         <v>129</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -3832,13 +3832,13 @@
       <c r="G16" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="94"/>
+      <c r="H16" s="66"/>
     </row>
     <row r="17" spans="2:8" ht="60" x14ac:dyDescent="0.2">
-      <c r="B17" s="84">
+      <c r="B17" s="56">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C17" s="60"/>
+      <c r="C17" s="97"/>
       <c r="D17" s="4" t="s">
         <v>131</v>
       </c>
@@ -3851,13 +3851,13 @@
       <c r="G17" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="H17" s="94"/>
+      <c r="H17" s="66"/>
     </row>
     <row r="18" spans="2:8" ht="60" x14ac:dyDescent="0.2">
-      <c r="B18" s="84">
+      <c r="B18" s="56">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C18" s="60"/>
+      <c r="C18" s="97"/>
       <c r="D18" s="4" t="s">
         <v>133</v>
       </c>
@@ -3870,10 +3870,10 @@
       <c r="G18" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="H18" s="94"/>
+      <c r="H18" s="66"/>
     </row>
     <row r="19" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="84">
+      <c r="B19" s="56">
         <v>2.4</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -3889,10 +3889,10 @@
       <c r="G19" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="H19" s="95"/>
+      <c r="H19" s="67"/>
     </row>
     <row r="20" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="96">
+      <c r="B20" s="68">
         <v>2.5</v>
       </c>
       <c r="C20" s="30" t="s">
@@ -3908,19 +3908,19 @@
       <c r="G20" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H20" s="97"/>
+      <c r="H20" s="69"/>
     </row>
     <row r="21" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="89"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="91"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="63"/>
     </row>
     <row r="22" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="92">
+      <c r="B22" s="64">
         <v>3</v>
       </c>
       <c r="C22" s="32" t="s">
@@ -3930,13 +3930,13 @@
       <c r="E22" s="26"/>
       <c r="F22" s="26"/>
       <c r="G22" s="38"/>
-      <c r="H22" s="93"/>
-    </row>
-    <row r="23" spans="2:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="B23" s="98">
+      <c r="H22" s="65"/>
+    </row>
+    <row r="23" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B23" s="70">
         <v>3.1</v>
       </c>
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="101" t="s">
         <v>129</v>
       </c>
       <c r="D23" s="4" t="s">
@@ -3949,13 +3949,13 @@
       <c r="G23" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H23" s="99"/>
-    </row>
-    <row r="24" spans="2:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="B24" s="84">
+      <c r="H23" s="71"/>
+    </row>
+    <row r="24" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B24" s="56">
         <v>3.2</v>
       </c>
-      <c r="C24" s="58"/>
+      <c r="C24" s="103"/>
       <c r="D24" s="4" t="s">
         <v>36</v>
       </c>
@@ -3968,13 +3968,13 @@
       <c r="G24" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="H24" s="99"/>
-    </row>
-    <row r="25" spans="2:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="B25" s="84">
+      <c r="H24" s="71"/>
+    </row>
+    <row r="25" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B25" s="56">
         <v>3.3</v>
       </c>
-      <c r="C25" s="58"/>
+      <c r="C25" s="103"/>
       <c r="D25" s="4" t="s">
         <v>69</v>
       </c>
@@ -3987,13 +3987,13 @@
       <c r="G25" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="99"/>
-    </row>
-    <row r="26" spans="2:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="B26" s="98">
+      <c r="H25" s="71"/>
+    </row>
+    <row r="26" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B26" s="70">
         <v>3.4</v>
       </c>
-      <c r="C26" s="59"/>
+      <c r="C26" s="102"/>
       <c r="D26" s="4" t="s">
         <v>38</v>
       </c>
@@ -4004,10 +4004,10 @@
       <c r="G26" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="100"/>
+      <c r="H26" s="72"/>
     </row>
     <row r="27" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B27" s="84">
+      <c r="B27" s="56">
         <v>3.5</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -4023,10 +4023,10 @@
       <c r="G27" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="H27" s="95"/>
+      <c r="H27" s="67"/>
     </row>
     <row r="28" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="96">
+      <c r="B28" s="68">
         <v>3.6</v>
       </c>
       <c r="C28" s="30" t="s">
@@ -4042,19 +4042,19 @@
       <c r="G28" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H28" s="97"/>
+      <c r="H28" s="69"/>
     </row>
     <row r="29" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="101"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="102"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="107"/>
+      <c r="F29" s="107"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="108"/>
     </row>
     <row r="30" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="103">
+      <c r="B30" s="73">
         <v>4</v>
       </c>
       <c r="C30" s="42" t="s">
@@ -4064,10 +4064,10 @@
       <c r="E30" s="36"/>
       <c r="F30" s="36"/>
       <c r="G30" s="39"/>
-      <c r="H30" s="104"/>
+      <c r="H30" s="74"/>
     </row>
     <row r="31" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B31" s="98">
+      <c r="B31" s="70">
         <v>4.0999999999999996</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -4085,16 +4085,16 @@
       <c r="G31" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H31" s="99"/>
+      <c r="H31" s="71"/>
     </row>
     <row r="32" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B32" s="98">
+      <c r="B32" s="70">
         <v>4.2</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="86" t="s">
+      <c r="D32" s="58" t="s">
         <v>142</v>
       </c>
       <c r="E32" s="8"/>
@@ -4104,10 +4104,10 @@
       <c r="G32" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="H32" s="99"/>
+      <c r="H32" s="71"/>
     </row>
     <row r="33" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B33" s="98">
+      <c r="B33" s="70">
         <v>4.3</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -4123,10 +4123,10 @@
       <c r="G33" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H33" s="99"/>
+      <c r="H33" s="71"/>
     </row>
     <row r="34" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="105">
+      <c r="B34" s="75">
         <v>4.4000000000000004</v>
       </c>
       <c r="C34" s="30" t="s">
@@ -4142,19 +4142,19 @@
       <c r="G34" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H34" s="97"/>
+      <c r="H34" s="69"/>
     </row>
     <row r="35" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="101"/>
-      <c r="C35" s="73"/>
-      <c r="D35" s="73"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="102"/>
+      <c r="B35" s="106"/>
+      <c r="C35" s="107"/>
+      <c r="D35" s="107"/>
+      <c r="E35" s="107"/>
+      <c r="F35" s="107"/>
+      <c r="G35" s="107"/>
+      <c r="H35" s="108"/>
     </row>
     <row r="36" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="103">
+      <c r="B36" s="73">
         <v>5</v>
       </c>
       <c r="C36" s="42" t="s">
@@ -4164,16 +4164,16 @@
       <c r="E36" s="37"/>
       <c r="F36" s="37"/>
       <c r="G36" s="40"/>
-      <c r="H36" s="106"/>
+      <c r="H36" s="76"/>
     </row>
     <row r="37" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B37" s="98">
+      <c r="B37" s="70">
         <v>5.0999999999999996</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D37" s="86" t="s">
+      <c r="D37" s="58" t="s">
         <v>145</v>
       </c>
       <c r="E37" s="8"/>
@@ -4183,10 +4183,10 @@
       <c r="G37" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="H37" s="99"/>
+      <c r="H37" s="71"/>
     </row>
     <row r="38" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B38" s="98">
+      <c r="B38" s="70">
         <v>5.2</v>
       </c>
       <c r="C38" s="19" t="s">
@@ -4202,10 +4202,10 @@
       <c r="G38" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="H38" s="99"/>
+      <c r="H38" s="71"/>
     </row>
     <row r="39" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B39" s="107">
+      <c r="B39" s="77">
         <v>5.3</v>
       </c>
       <c r="C39" s="11" t="s">
@@ -4221,10 +4221,10 @@
       <c r="G39" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H39" s="99"/>
+      <c r="H39" s="71"/>
     </row>
     <row r="40" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B40" s="98">
+      <c r="B40" s="70">
         <v>5.3</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -4240,10 +4240,10 @@
       <c r="G40" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H40" s="99"/>
+      <c r="H40" s="71"/>
     </row>
     <row r="41" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B41" s="84">
+      <c r="B41" s="56">
         <v>5.4</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -4259,10 +4259,10 @@
       <c r="G41" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="H41" s="99"/>
+      <c r="H41" s="71"/>
     </row>
     <row r="42" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="105">
+      <c r="B42" s="75">
         <v>5.4</v>
       </c>
       <c r="C42" s="30" t="s">
@@ -4278,19 +4278,19 @@
       <c r="G42" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H42" s="97"/>
+      <c r="H42" s="69"/>
     </row>
     <row r="43" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="101"/>
-      <c r="C43" s="73"/>
-      <c r="D43" s="73"/>
-      <c r="E43" s="73"/>
-      <c r="F43" s="73"/>
-      <c r="G43" s="73"/>
-      <c r="H43" s="102"/>
+      <c r="B43" s="106"/>
+      <c r="C43" s="107"/>
+      <c r="D43" s="107"/>
+      <c r="E43" s="107"/>
+      <c r="F43" s="107"/>
+      <c r="G43" s="107"/>
+      <c r="H43" s="108"/>
     </row>
     <row r="44" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="103">
+      <c r="B44" s="73">
         <v>6</v>
       </c>
       <c r="C44" s="42" t="s">
@@ -4300,10 +4300,10 @@
       <c r="E44" s="37"/>
       <c r="F44" s="37"/>
       <c r="G44" s="40"/>
-      <c r="H44" s="106"/>
+      <c r="H44" s="76"/>
     </row>
     <row r="45" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B45" s="84">
+      <c r="B45" s="56">
         <v>6.1</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -4319,13 +4319,13 @@
       <c r="G45" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="H45" s="99"/>
+      <c r="H45" s="71"/>
     </row>
     <row r="46" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B46" s="84">
+      <c r="B46" s="56">
         <v>6.2</v>
       </c>
-      <c r="C46" s="57" t="s">
+      <c r="C46" s="101" t="s">
         <v>150</v>
       </c>
       <c r="D46" s="4" t="s">
@@ -4338,13 +4338,13 @@
       <c r="G46" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="H46" s="99"/>
+      <c r="H46" s="71"/>
     </row>
     <row r="47" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B47" s="84">
+      <c r="B47" s="56">
         <v>6.3</v>
       </c>
-      <c r="C47" s="58"/>
+      <c r="C47" s="103"/>
       <c r="D47" s="4" t="s">
         <v>52</v>
       </c>
@@ -4355,13 +4355,13 @@
       <c r="G47" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="H47" s="99"/>
+      <c r="H47" s="71"/>
     </row>
     <row r="48" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B48" s="84">
+      <c r="B48" s="56">
         <v>6.4</v>
       </c>
-      <c r="C48" s="59"/>
+      <c r="C48" s="102"/>
       <c r="D48" s="4" t="s">
         <v>154</v>
       </c>
@@ -4372,10 +4372,10 @@
       <c r="G48" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="H48" s="99"/>
+      <c r="H48" s="71"/>
     </row>
     <row r="49" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B49" s="84">
+      <c r="B49" s="56">
         <v>6.5</v>
       </c>
       <c r="C49" s="17" t="s">
@@ -4391,10 +4391,10 @@
       <c r="G49" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="H49" s="99"/>
+      <c r="H49" s="71"/>
     </row>
     <row r="50" spans="2:8" ht="60" x14ac:dyDescent="0.2">
-      <c r="B50" s="84">
+      <c r="B50" s="56">
         <v>6.6</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -4410,10 +4410,10 @@
       <c r="G50" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H50" s="85"/>
+      <c r="H50" s="57"/>
     </row>
     <row r="51" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="96">
+      <c r="B51" s="68">
         <v>6.7</v>
       </c>
       <c r="C51" s="30" t="s">
@@ -4429,19 +4429,19 @@
       <c r="G51" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H51" s="97"/>
+      <c r="H51" s="69"/>
     </row>
     <row r="52" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="101"/>
-      <c r="C52" s="73"/>
-      <c r="D52" s="73"/>
-      <c r="E52" s="73"/>
-      <c r="F52" s="73"/>
-      <c r="G52" s="73"/>
-      <c r="H52" s="102"/>
+      <c r="B52" s="106"/>
+      <c r="C52" s="107"/>
+      <c r="D52" s="107"/>
+      <c r="E52" s="107"/>
+      <c r="F52" s="107"/>
+      <c r="G52" s="107"/>
+      <c r="H52" s="108"/>
     </row>
     <row r="53" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B53" s="103">
+      <c r="B53" s="73">
         <v>7</v>
       </c>
       <c r="C53" s="42" t="s">
@@ -4451,10 +4451,10 @@
       <c r="E53" s="37"/>
       <c r="F53" s="37"/>
       <c r="G53" s="40"/>
-      <c r="H53" s="106"/>
+      <c r="H53" s="76"/>
     </row>
     <row r="54" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B54" s="108">
+      <c r="B54" s="78">
         <v>7.1</v>
       </c>
       <c r="C54" s="4" t="s">
@@ -4470,13 +4470,13 @@
       <c r="G54" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="H54" s="109"/>
+      <c r="H54" s="79"/>
     </row>
     <row r="55" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B55" s="84">
+      <c r="B55" s="56">
         <v>7.2</v>
       </c>
-      <c r="C55" s="68" t="s">
+      <c r="C55" s="104" t="s">
         <v>18</v>
       </c>
       <c r="D55" s="5" t="s">
@@ -4489,13 +4489,13 @@
       <c r="G55" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="H55" s="99"/>
+      <c r="H55" s="71"/>
     </row>
     <row r="56" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B56" s="108">
+      <c r="B56" s="78">
         <v>7.3</v>
       </c>
-      <c r="C56" s="69"/>
+      <c r="C56" s="105"/>
       <c r="D56" s="5" t="s">
         <v>162</v>
       </c>
@@ -4506,10 +4506,10 @@
       <c r="G56" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="H56" s="99"/>
+      <c r="H56" s="71"/>
     </row>
     <row r="57" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B57" s="84">
+      <c r="B57" s="56">
         <v>7.4</v>
       </c>
       <c r="C57" s="4" t="s">
@@ -4525,10 +4525,10 @@
       <c r="G57" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H57" s="99"/>
+      <c r="H57" s="71"/>
     </row>
     <row r="58" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="96">
+      <c r="B58" s="68">
         <v>7.5</v>
       </c>
       <c r="C58" s="30" t="s">
@@ -4544,19 +4544,19 @@
       <c r="G58" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H58" s="97"/>
+      <c r="H58" s="69"/>
     </row>
     <row r="59" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="101"/>
-      <c r="C59" s="73"/>
-      <c r="D59" s="73"/>
-      <c r="E59" s="73"/>
-      <c r="F59" s="73"/>
-      <c r="G59" s="73"/>
-      <c r="H59" s="102"/>
+      <c r="B59" s="106"/>
+      <c r="C59" s="107"/>
+      <c r="D59" s="107"/>
+      <c r="E59" s="107"/>
+      <c r="F59" s="107"/>
+      <c r="G59" s="107"/>
+      <c r="H59" s="108"/>
     </row>
     <row r="60" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B60" s="103">
+      <c r="B60" s="73">
         <v>8</v>
       </c>
       <c r="C60" s="42" t="s">
@@ -4566,10 +4566,10 @@
       <c r="E60" s="37"/>
       <c r="F60" s="37"/>
       <c r="G60" s="40"/>
-      <c r="H60" s="106"/>
+      <c r="H60" s="76"/>
     </row>
     <row r="61" spans="2:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="B61" s="108">
+      <c r="B61" s="78">
         <v>8.1</v>
       </c>
       <c r="C61" s="22" t="s">
@@ -4585,13 +4585,13 @@
       <c r="G61" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="H61" s="110"/>
+      <c r="H61" s="80"/>
     </row>
     <row r="62" spans="2:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="B62" s="84">
+      <c r="B62" s="56">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C62" s="57" t="s">
+      <c r="C62" s="101" t="s">
         <v>167</v>
       </c>
       <c r="D62" s="4" t="s">
@@ -4606,13 +4606,13 @@
       <c r="G62" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H62" s="99"/>
+      <c r="H62" s="71"/>
     </row>
     <row r="63" spans="2:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="B63" s="108">
+      <c r="B63" s="78">
         <v>8.3000000000000007</v>
       </c>
-      <c r="C63" s="59"/>
+      <c r="C63" s="102"/>
       <c r="D63" s="4" t="s">
         <v>61</v>
       </c>
@@ -4625,10 +4625,10 @@
       <c r="G63" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="H63" s="99"/>
+      <c r="H63" s="71"/>
     </row>
     <row r="64" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="96">
+      <c r="B64" s="68">
         <v>8.4</v>
       </c>
       <c r="C64" s="30" t="s">
@@ -4644,19 +4644,19 @@
       <c r="G64" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H64" s="97"/>
+      <c r="H64" s="69"/>
     </row>
     <row r="65" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="101"/>
-      <c r="C65" s="73"/>
-      <c r="D65" s="73"/>
-      <c r="E65" s="73"/>
-      <c r="F65" s="73"/>
-      <c r="G65" s="73"/>
-      <c r="H65" s="102"/>
+      <c r="B65" s="106"/>
+      <c r="C65" s="107"/>
+      <c r="D65" s="107"/>
+      <c r="E65" s="107"/>
+      <c r="F65" s="107"/>
+      <c r="G65" s="107"/>
+      <c r="H65" s="108"/>
     </row>
     <row r="66" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B66" s="103">
+      <c r="B66" s="73">
         <v>9</v>
       </c>
       <c r="C66" s="42" t="s">
@@ -4666,10 +4666,10 @@
       <c r="E66" s="37"/>
       <c r="F66" s="37"/>
       <c r="G66" s="40"/>
-      <c r="H66" s="106"/>
+      <c r="H66" s="76"/>
     </row>
     <row r="67" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B67" s="108">
+      <c r="B67" s="78">
         <v>9.1</v>
       </c>
       <c r="C67" s="22" t="s">
@@ -4685,10 +4685,10 @@
       <c r="G67" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="H67" s="109"/>
+      <c r="H67" s="79"/>
     </row>
     <row r="68" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B68" s="84">
+      <c r="B68" s="56">
         <v>9.1999999999999993</v>
       </c>
       <c r="C68" s="4" t="s">
@@ -4704,10 +4704,10 @@
       <c r="G68" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="H68" s="99"/>
+      <c r="H68" s="71"/>
     </row>
     <row r="69" spans="2:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="B69" s="84">
+      <c r="B69" s="56">
         <v>9.3000000000000007</v>
       </c>
       <c r="C69" s="4" t="s">
@@ -4723,10 +4723,10 @@
       <c r="G69" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="H69" s="99"/>
+      <c r="H69" s="71"/>
     </row>
     <row r="70" spans="2:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="B70" s="108">
+      <c r="B70" s="78">
         <v>9.4</v>
       </c>
       <c r="C70" s="11" t="s">
@@ -4742,10 +4742,10 @@
       <c r="G70" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="H70" s="109"/>
+      <c r="H70" s="79"/>
     </row>
     <row r="71" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="96">
+      <c r="B71" s="68">
         <v>9.5</v>
       </c>
       <c r="C71" s="30" t="s">
@@ -4761,32 +4761,32 @@
       <c r="G71" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H71" s="97"/>
+      <c r="H71" s="69"/>
     </row>
     <row r="72" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="101"/>
-      <c r="C72" s="73"/>
-      <c r="D72" s="73"/>
-      <c r="E72" s="73"/>
-      <c r="F72" s="73"/>
-      <c r="G72" s="73"/>
-      <c r="H72" s="102"/>
+      <c r="B72" s="106"/>
+      <c r="C72" s="107"/>
+      <c r="D72" s="107"/>
+      <c r="E72" s="107"/>
+      <c r="F72" s="107"/>
+      <c r="G72" s="107"/>
+      <c r="H72" s="108"/>
     </row>
     <row r="73" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B73" s="111">
+      <c r="B73" s="81">
         <v>10</v>
       </c>
-      <c r="C73" s="63" t="s">
+      <c r="C73" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="D73" s="64"/>
+      <c r="D73" s="133"/>
       <c r="E73" s="37"/>
       <c r="F73" s="37"/>
       <c r="G73" s="40"/>
-      <c r="H73" s="106"/>
+      <c r="H73" s="76"/>
     </row>
     <row r="74" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B74" s="108">
+      <c r="B74" s="78">
         <v>10.1</v>
       </c>
       <c r="C74" s="22" t="s">
@@ -4802,13 +4802,13 @@
       <c r="G74" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="H74" s="110"/>
+      <c r="H74" s="80"/>
     </row>
     <row r="75" spans="2:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="B75" s="98">
+      <c r="B75" s="70">
         <v>10.199999999999999</v>
       </c>
-      <c r="C75" s="65" t="s">
+      <c r="C75" s="134" t="s">
         <v>129</v>
       </c>
       <c r="D75" s="4" t="s">
@@ -4821,13 +4821,13 @@
       <c r="G75" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H75" s="99"/>
+      <c r="H75" s="71"/>
     </row>
     <row r="76" spans="2:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="B76" s="108">
+      <c r="B76" s="78">
         <v>10.3</v>
       </c>
-      <c r="C76" s="66"/>
+      <c r="C76" s="135"/>
       <c r="D76" s="4" t="s">
         <v>67</v>
       </c>
@@ -4838,13 +4838,13 @@
       <c r="G76" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="H76" s="99"/>
+      <c r="H76" s="71"/>
     </row>
     <row r="77" spans="2:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="B77" s="108">
+      <c r="B77" s="78">
         <v>10.4</v>
       </c>
-      <c r="C77" s="66"/>
+      <c r="C77" s="135"/>
       <c r="D77" s="4" t="s">
         <v>178</v>
       </c>
@@ -4855,13 +4855,13 @@
       <c r="G77" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="H77" s="99"/>
+      <c r="H77" s="71"/>
     </row>
     <row r="78" spans="2:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="B78" s="98">
+      <c r="B78" s="70">
         <v>10.5</v>
       </c>
-      <c r="C78" s="67"/>
+      <c r="C78" s="136"/>
       <c r="D78" s="4" t="s">
         <v>68</v>
       </c>
@@ -4872,10 +4872,10 @@
       <c r="G78" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="H78" s="99"/>
+      <c r="H78" s="71"/>
     </row>
     <row r="79" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="96">
+      <c r="B79" s="68">
         <v>10.6</v>
       </c>
       <c r="C79" s="30" t="s">
@@ -4891,35 +4891,35 @@
       <c r="G79" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H79" s="97"/>
+      <c r="H79" s="69"/>
     </row>
     <row r="80" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="101"/>
-      <c r="C80" s="73"/>
-      <c r="D80" s="73"/>
-      <c r="E80" s="73"/>
-      <c r="F80" s="73"/>
-      <c r="G80" s="73"/>
-      <c r="H80" s="102"/>
+      <c r="B80" s="106"/>
+      <c r="C80" s="107"/>
+      <c r="D80" s="107"/>
+      <c r="E80" s="107"/>
+      <c r="F80" s="107"/>
+      <c r="G80" s="107"/>
+      <c r="H80" s="108"/>
     </row>
     <row r="81" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B81" s="103">
+      <c r="B81" s="73">
         <v>11</v>
       </c>
-      <c r="C81" s="63" t="s">
+      <c r="C81" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="D81" s="64"/>
+      <c r="D81" s="133"/>
       <c r="E81" s="37"/>
       <c r="F81" s="37"/>
       <c r="G81" s="40"/>
-      <c r="H81" s="106"/>
+      <c r="H81" s="76"/>
     </row>
     <row r="82" spans="2:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="B82" s="108">
+      <c r="B82" s="78">
         <v>11.1</v>
       </c>
-      <c r="C82" s="57" t="s">
+      <c r="C82" s="101" t="s">
         <v>180</v>
       </c>
       <c r="D82" s="11" t="s">
@@ -4932,13 +4932,13 @@
       <c r="G82" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H82" s="110"/>
+      <c r="H82" s="80"/>
     </row>
     <row r="83" spans="2:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="B83" s="98">
+      <c r="B83" s="70">
         <v>11.2</v>
       </c>
-      <c r="C83" s="59"/>
+      <c r="C83" s="102"/>
       <c r="D83" s="11" t="s">
         <v>73</v>
       </c>
@@ -4949,10 +4949,10 @@
       <c r="G83" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="H83" s="99"/>
+      <c r="H83" s="71"/>
     </row>
     <row r="84" spans="2:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="B84" s="108">
+      <c r="B84" s="78">
         <v>11.3</v>
       </c>
       <c r="C84" s="11" t="s">
@@ -4968,10 +4968,10 @@
       <c r="G84" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="H84" s="99"/>
+      <c r="H84" s="71"/>
     </row>
     <row r="85" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="105">
+      <c r="B85" s="75">
         <v>11.4</v>
       </c>
       <c r="C85" s="30" t="s">
@@ -4987,35 +4987,35 @@
       <c r="G85" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H85" s="97"/>
+      <c r="H85" s="69"/>
     </row>
     <row r="86" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="101"/>
-      <c r="C86" s="73"/>
-      <c r="D86" s="73"/>
-      <c r="E86" s="73"/>
-      <c r="F86" s="73"/>
-      <c r="G86" s="73"/>
-      <c r="H86" s="102"/>
+      <c r="B86" s="106"/>
+      <c r="C86" s="107"/>
+      <c r="D86" s="107"/>
+      <c r="E86" s="107"/>
+      <c r="F86" s="107"/>
+      <c r="G86" s="107"/>
+      <c r="H86" s="108"/>
     </row>
     <row r="87" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B87" s="103">
+      <c r="B87" s="73">
         <v>12</v>
       </c>
-      <c r="C87" s="61" t="s">
+      <c r="C87" s="112" t="s">
         <v>182</v>
       </c>
-      <c r="D87" s="62"/>
-      <c r="E87" s="62"/>
-      <c r="F87" s="62"/>
-      <c r="G87" s="62"/>
-      <c r="H87" s="112"/>
+      <c r="D87" s="113"/>
+      <c r="E87" s="113"/>
+      <c r="F87" s="113"/>
+      <c r="G87" s="113"/>
+      <c r="H87" s="114"/>
     </row>
     <row r="88" spans="2:8" ht="45" x14ac:dyDescent="0.2">
-      <c r="B88" s="84">
+      <c r="B88" s="56">
         <v>12.1</v>
       </c>
-      <c r="C88" s="60" t="s">
+      <c r="C88" s="97" t="s">
         <v>129</v>
       </c>
       <c r="D88" s="4" t="s">
@@ -5028,13 +5028,13 @@
       <c r="G88" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H88" s="94"/>
+      <c r="H88" s="66"/>
     </row>
     <row r="89" spans="2:8" ht="45" x14ac:dyDescent="0.2">
-      <c r="B89" s="84">
+      <c r="B89" s="56">
         <v>12.2</v>
       </c>
-      <c r="C89" s="60"/>
+      <c r="C89" s="97"/>
       <c r="D89" s="4" t="s">
         <v>131</v>
       </c>
@@ -5047,13 +5047,13 @@
       <c r="G89" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="H89" s="94"/>
+      <c r="H89" s="66"/>
     </row>
     <row r="90" spans="2:8" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="B90" s="84">
+      <c r="B90" s="56">
         <v>12.3</v>
       </c>
-      <c r="C90" s="60"/>
+      <c r="C90" s="97"/>
       <c r="D90" s="4" t="s">
         <v>133</v>
       </c>
@@ -5066,10 +5066,10 @@
       <c r="G90" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="H90" s="94"/>
+      <c r="H90" s="66"/>
     </row>
     <row r="91" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="96">
+      <c r="B91" s="68">
         <v>12.4</v>
       </c>
       <c r="C91" s="30" t="s">
@@ -5085,32 +5085,32 @@
       <c r="G91" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H91" s="97"/>
+      <c r="H91" s="69"/>
     </row>
     <row r="92" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="101"/>
-      <c r="C92" s="73"/>
-      <c r="D92" s="73"/>
-      <c r="E92" s="73"/>
-      <c r="F92" s="73"/>
-      <c r="G92" s="73"/>
-      <c r="H92" s="102"/>
+      <c r="B92" s="106"/>
+      <c r="C92" s="107"/>
+      <c r="D92" s="107"/>
+      <c r="E92" s="107"/>
+      <c r="F92" s="107"/>
+      <c r="G92" s="107"/>
+      <c r="H92" s="108"/>
     </row>
     <row r="93" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B93" s="103">
+      <c r="B93" s="73">
         <v>13</v>
       </c>
-      <c r="C93" s="61" t="s">
+      <c r="C93" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="D93" s="62"/>
-      <c r="E93" s="62"/>
-      <c r="F93" s="62"/>
-      <c r="G93" s="62"/>
-      <c r="H93" s="112"/>
+      <c r="D93" s="113"/>
+      <c r="E93" s="113"/>
+      <c r="F93" s="113"/>
+      <c r="G93" s="113"/>
+      <c r="H93" s="114"/>
     </row>
     <row r="94" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B94" s="98">
+      <c r="B94" s="70">
         <v>13.1</v>
       </c>
       <c r="C94" s="4" t="s">
@@ -5126,10 +5126,10 @@
       <c r="G94" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="H94" s="99"/>
+      <c r="H94" s="71"/>
     </row>
     <row r="95" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B95" s="84">
+      <c r="B95" s="56">
         <v>13.2</v>
       </c>
       <c r="C95" s="4" t="s">
@@ -5145,10 +5145,10 @@
       <c r="G95" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="H95" s="99"/>
+      <c r="H95" s="71"/>
     </row>
     <row r="96" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B96" s="84">
+      <c r="B96" s="56">
         <v>13.3</v>
       </c>
       <c r="C96" s="4" t="s">
@@ -5164,10 +5164,10 @@
       <c r="G96" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H96" s="99"/>
+      <c r="H96" s="71"/>
     </row>
     <row r="97" spans="2:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="B97" s="84">
+      <c r="B97" s="56">
         <v>13.4</v>
       </c>
       <c r="C97" s="4" t="s">
@@ -5183,10 +5183,10 @@
       <c r="G97" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="H97" s="99"/>
+      <c r="H97" s="71"/>
     </row>
     <row r="98" spans="2:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B98" s="84">
+      <c r="B98" s="56">
         <v>13.5</v>
       </c>
       <c r="C98" s="4" t="s">
@@ -5202,10 +5202,10 @@
       <c r="G98" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="H98" s="99"/>
+      <c r="H98" s="71"/>
     </row>
     <row r="99" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="96">
+      <c r="B99" s="68">
         <v>13.6</v>
       </c>
       <c r="C99" s="30" t="s">
@@ -5221,35 +5221,35 @@
       <c r="G99" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H99" s="97"/>
+      <c r="H99" s="69"/>
     </row>
     <row r="100" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="101"/>
-      <c r="C100" s="73"/>
-      <c r="D100" s="73"/>
-      <c r="E100" s="73"/>
-      <c r="F100" s="73"/>
-      <c r="G100" s="73"/>
-      <c r="H100" s="102"/>
+      <c r="B100" s="106"/>
+      <c r="C100" s="107"/>
+      <c r="D100" s="107"/>
+      <c r="E100" s="107"/>
+      <c r="F100" s="107"/>
+      <c r="G100" s="107"/>
+      <c r="H100" s="108"/>
     </row>
     <row r="101" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B101" s="103">
+      <c r="B101" s="73">
         <v>14</v>
       </c>
-      <c r="C101" s="63" t="s">
+      <c r="C101" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="D101" s="74"/>
-      <c r="E101" s="74"/>
-      <c r="F101" s="74"/>
-      <c r="G101" s="74"/>
-      <c r="H101" s="113"/>
+      <c r="D101" s="110"/>
+      <c r="E101" s="110"/>
+      <c r="F101" s="110"/>
+      <c r="G101" s="110"/>
+      <c r="H101" s="111"/>
     </row>
     <row r="102" spans="2:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="B102" s="98">
+      <c r="B102" s="70">
         <v>14.1</v>
       </c>
-      <c r="C102" s="57" t="s">
+      <c r="C102" s="101" t="s">
         <v>151</v>
       </c>
       <c r="D102" s="4" t="s">
@@ -5262,30 +5262,30 @@
       <c r="G102" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="H102" s="114"/>
+      <c r="H102" s="82"/>
     </row>
     <row r="103" spans="2:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="B103" s="84">
+      <c r="B103" s="56">
         <v>14.2</v>
       </c>
-      <c r="C103" s="59"/>
+      <c r="C103" s="102"/>
       <c r="D103" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="E103" s="77"/>
+      <c r="E103" s="49"/>
       <c r="F103" s="25" t="s">
         <v>265</v>
       </c>
       <c r="G103" s="44" t="s">
         <v>192</v>
       </c>
-      <c r="H103" s="99"/>
+      <c r="H103" s="71"/>
     </row>
     <row r="104" spans="2:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="B104" s="84">
+      <c r="B104" s="56">
         <v>14.3</v>
       </c>
-      <c r="C104" s="57" t="s">
+      <c r="C104" s="101" t="s">
         <v>193</v>
       </c>
       <c r="D104" s="4" t="s">
@@ -5298,13 +5298,13 @@
       <c r="G104" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="H104" s="99"/>
+      <c r="H104" s="71"/>
     </row>
     <row r="105" spans="2:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="B105" s="98">
+      <c r="B105" s="70">
         <v>14.4</v>
       </c>
-      <c r="C105" s="59"/>
+      <c r="C105" s="102"/>
       <c r="D105" s="43" t="s">
         <v>312</v>
       </c>
@@ -5315,10 +5315,10 @@
       <c r="G105" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="H105" s="99"/>
+      <c r="H105" s="71"/>
     </row>
     <row r="106" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="96">
+      <c r="B106" s="68">
         <v>14.5</v>
       </c>
       <c r="C106" s="30" t="s">
@@ -5334,35 +5334,35 @@
       <c r="G106" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H106" s="97"/>
+      <c r="H106" s="69"/>
     </row>
     <row r="107" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="130"/>
-      <c r="C107" s="131"/>
-      <c r="D107" s="131"/>
-      <c r="E107" s="131"/>
-      <c r="F107" s="131"/>
-      <c r="G107" s="131"/>
-      <c r="H107" s="132"/>
+      <c r="B107" s="119"/>
+      <c r="C107" s="120"/>
+      <c r="D107" s="120"/>
+      <c r="E107" s="120"/>
+      <c r="F107" s="120"/>
+      <c r="G107" s="120"/>
+      <c r="H107" s="121"/>
     </row>
     <row r="108" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B108" s="35">
         <v>15</v>
       </c>
-      <c r="C108" s="63" t="s">
+      <c r="C108" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="D108" s="74"/>
-      <c r="E108" s="74"/>
-      <c r="F108" s="74"/>
-      <c r="G108" s="74"/>
-      <c r="H108" s="75"/>
+      <c r="D108" s="110"/>
+      <c r="E108" s="110"/>
+      <c r="F108" s="110"/>
+      <c r="G108" s="110"/>
+      <c r="H108" s="118"/>
     </row>
     <row r="109" spans="2:8" ht="105" x14ac:dyDescent="0.25">
       <c r="B109" s="34">
         <v>15.1</v>
       </c>
-      <c r="C109" s="57" t="s">
+      <c r="C109" s="101" t="s">
         <v>194</v>
       </c>
       <c r="D109" s="4" t="s">
@@ -5375,13 +5375,13 @@
       <c r="G109" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H109" s="76"/>
+      <c r="H109" s="48"/>
     </row>
     <row r="110" spans="2:8" ht="105" x14ac:dyDescent="0.25">
       <c r="B110" s="27">
         <v>15.2</v>
       </c>
-      <c r="C110" s="59"/>
+      <c r="C110" s="102"/>
       <c r="D110" s="4" t="s">
         <v>80</v>
       </c>
@@ -5392,7 +5392,7 @@
       <c r="G110" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H110" s="76"/>
+      <c r="H110" s="48"/>
     </row>
     <row r="111" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B111" s="28">
@@ -5414,32 +5414,32 @@
       <c r="H111" s="31"/>
     </row>
     <row r="112" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="101"/>
-      <c r="C112" s="73"/>
-      <c r="D112" s="73"/>
-      <c r="E112" s="73"/>
-      <c r="F112" s="73"/>
-      <c r="G112" s="73"/>
-      <c r="H112" s="102"/>
+      <c r="B112" s="106"/>
+      <c r="C112" s="107"/>
+      <c r="D112" s="107"/>
+      <c r="E112" s="107"/>
+      <c r="F112" s="107"/>
+      <c r="G112" s="107"/>
+      <c r="H112" s="108"/>
     </row>
     <row r="113" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B113" s="103">
+      <c r="B113" s="73">
         <v>16</v>
       </c>
-      <c r="C113" s="61" t="s">
+      <c r="C113" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="D113" s="62"/>
-      <c r="E113" s="62"/>
-      <c r="F113" s="62"/>
-      <c r="G113" s="62"/>
-      <c r="H113" s="112"/>
+      <c r="D113" s="113"/>
+      <c r="E113" s="113"/>
+      <c r="F113" s="113"/>
+      <c r="G113" s="113"/>
+      <c r="H113" s="114"/>
     </row>
     <row r="114" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B114" s="98">
+      <c r="B114" s="70">
         <v>16.100000000000001</v>
       </c>
-      <c r="C114" s="57" t="s">
+      <c r="C114" s="101" t="s">
         <v>194</v>
       </c>
       <c r="D114" s="4" t="s">
@@ -5452,13 +5452,13 @@
       <c r="G114" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H114" s="99"/>
+      <c r="H114" s="71"/>
     </row>
     <row r="115" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B115" s="84">
+      <c r="B115" s="56">
         <v>16.2</v>
       </c>
-      <c r="C115" s="59"/>
+      <c r="C115" s="102"/>
       <c r="D115" s="4" t="s">
         <v>80</v>
       </c>
@@ -5469,10 +5469,10 @@
       <c r="G115" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="H115" s="99"/>
+      <c r="H115" s="71"/>
     </row>
     <row r="116" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="105">
+      <c r="B116" s="75">
         <v>16.3</v>
       </c>
       <c r="C116" s="30" t="s">
@@ -5488,152 +5488,152 @@
       <c r="G116" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H116" s="97"/>
+      <c r="H116" s="69"/>
     </row>
     <row r="117" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B117" s="115"/>
-      <c r="C117" s="70"/>
-      <c r="D117" s="70"/>
-      <c r="E117" s="70"/>
-      <c r="F117" s="70"/>
-      <c r="G117" s="70"/>
-      <c r="H117" s="116"/>
+      <c r="B117" s="122"/>
+      <c r="C117" s="123"/>
+      <c r="D117" s="123"/>
+      <c r="E117" s="123"/>
+      <c r="F117" s="123"/>
+      <c r="G117" s="123"/>
+      <c r="H117" s="124"/>
     </row>
     <row r="118" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B118" s="117">
+      <c r="B118" s="83">
         <v>17</v>
       </c>
-      <c r="C118" s="53" t="s">
+      <c r="C118" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="D118" s="54"/>
-      <c r="E118" s="54"/>
-      <c r="F118" s="54"/>
-      <c r="G118" s="54"/>
-      <c r="H118" s="118"/>
+      <c r="D118" s="116"/>
+      <c r="E118" s="116"/>
+      <c r="F118" s="116"/>
+      <c r="G118" s="116"/>
+      <c r="H118" s="117"/>
     </row>
     <row r="119" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="84">
+      <c r="B119" s="56">
         <v>17.100000000000001</v>
       </c>
-      <c r="C119" s="60" t="s">
+      <c r="C119" s="97" t="s">
         <v>151</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>195</v>
       </c>
       <c r="E119" s="8"/>
-      <c r="F119" s="48" t="s">
+      <c r="F119" s="140" t="s">
         <v>269</v>
       </c>
       <c r="G119" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H119" s="99"/>
+      <c r="H119" s="71"/>
     </row>
     <row r="120" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B120" s="84">
+      <c r="B120" s="56">
         <v>17.2</v>
       </c>
-      <c r="C120" s="60"/>
+      <c r="C120" s="97"/>
       <c r="D120" s="4" t="s">
         <v>196</v>
       </c>
       <c r="E120" s="8"/>
-      <c r="F120" s="49"/>
+      <c r="F120" s="141"/>
       <c r="G120" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="H120" s="114"/>
-    </row>
-    <row r="121" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B121" s="84">
+      <c r="H120" s="82"/>
+    </row>
+    <row r="121" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B121" s="56">
         <v>17.3</v>
       </c>
-      <c r="C121" s="60"/>
+      <c r="C121" s="97"/>
       <c r="D121" s="4" t="s">
         <v>145</v>
       </c>
       <c r="E121" s="8"/>
-      <c r="F121" s="50"/>
+      <c r="F121" s="142"/>
       <c r="G121" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="H121" s="114"/>
+      <c r="H121" s="82"/>
     </row>
     <row r="122" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="84">
+      <c r="B122" s="56">
         <v>17.399999999999999</v>
       </c>
-      <c r="C122" s="57" t="s">
+      <c r="C122" s="101" t="s">
         <v>14</v>
       </c>
       <c r="D122" s="4" t="s">
         <v>86</v>
       </c>
       <c r="E122" s="8"/>
-      <c r="F122" s="48" t="s">
+      <c r="F122" s="140" t="s">
         <v>270</v>
       </c>
       <c r="G122" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="H122" s="99"/>
+      <c r="H122" s="71"/>
     </row>
     <row r="123" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B123" s="84">
+      <c r="B123" s="56">
         <v>17.5</v>
       </c>
-      <c r="C123" s="58"/>
+      <c r="C123" s="103"/>
       <c r="D123" s="4" t="s">
         <v>87</v>
       </c>
       <c r="E123" s="8"/>
-      <c r="F123" s="49"/>
+      <c r="F123" s="141"/>
       <c r="G123" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="H123" s="99"/>
+      <c r="H123" s="71"/>
     </row>
     <row r="124" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B124" s="84">
+      <c r="B124" s="56">
         <v>17.600000000000001</v>
       </c>
-      <c r="C124" s="59"/>
+      <c r="C124" s="102"/>
       <c r="D124" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E124" s="23"/>
-      <c r="F124" s="50"/>
+      <c r="F124" s="142"/>
       <c r="G124" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="H124" s="114"/>
+      <c r="H124" s="82"/>
     </row>
     <row r="125" spans="2:8" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="84">
+      <c r="B125" s="56">
         <v>17.7</v>
       </c>
-      <c r="C125" s="51" t="s">
+      <c r="C125" s="98" t="s">
         <v>351</v>
       </c>
       <c r="D125" s="43" t="s">
         <v>352</v>
       </c>
       <c r="E125" s="23"/>
-      <c r="F125" s="138" t="s">
+      <c r="F125" s="95" t="s">
         <v>353</v>
       </c>
       <c r="G125" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="H125" s="114"/>
+      <c r="H125" s="82"/>
     </row>
     <row r="126" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="84">
+      <c r="B126" s="56">
         <v>17.8</v>
       </c>
-      <c r="C126" s="71"/>
+      <c r="C126" s="99"/>
       <c r="D126" s="43" t="s">
         <v>285</v>
       </c>
@@ -5644,13 +5644,13 @@
       <c r="G126" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="H126" s="114"/>
+      <c r="H126" s="82"/>
     </row>
     <row r="127" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="84">
+      <c r="B127" s="56">
         <v>17.899999999999999</v>
       </c>
-      <c r="C127" s="52"/>
+      <c r="C127" s="100"/>
       <c r="D127" s="43" t="s">
         <v>361</v>
       </c>
@@ -5661,32 +5661,32 @@
       <c r="G127" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="H127" s="114"/>
+      <c r="H127" s="82"/>
     </row>
     <row r="128" spans="2:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="119">
+      <c r="B128" s="84">
         <v>17.100000000000001</v>
       </c>
-      <c r="C128" s="51" t="s">
+      <c r="C128" s="98" t="s">
         <v>356</v>
       </c>
       <c r="D128" s="43" t="s">
         <v>357</v>
       </c>
       <c r="E128" s="23"/>
-      <c r="F128" s="138" t="s">
+      <c r="F128" s="95" t="s">
         <v>358</v>
       </c>
       <c r="G128" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="H128" s="114"/>
+      <c r="H128" s="82"/>
     </row>
     <row r="129" spans="2:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="119">
+      <c r="B129" s="84">
         <v>17.11</v>
       </c>
-      <c r="C129" s="71"/>
+      <c r="C129" s="99"/>
       <c r="D129" s="43" t="s">
         <v>285</v>
       </c>
@@ -5697,13 +5697,13 @@
       <c r="G129" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="H129" s="114"/>
+      <c r="H129" s="82"/>
     </row>
     <row r="130" spans="2:8" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="119">
+      <c r="B130" s="84">
         <v>17.12</v>
       </c>
-      <c r="C130" s="52"/>
+      <c r="C130" s="100"/>
       <c r="D130" s="43" t="s">
         <v>364</v>
       </c>
@@ -5714,10 +5714,10 @@
       <c r="G130" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="H130" s="114"/>
+      <c r="H130" s="82"/>
     </row>
     <row r="131" spans="2:8" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="119">
+      <c r="B131" s="84">
         <v>17.13</v>
       </c>
       <c r="C131" s="46" t="s">
@@ -5733,32 +5733,32 @@
       <c r="G131" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="H131" s="114"/>
+      <c r="H131" s="82"/>
     </row>
     <row r="132" spans="2:8" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="119">
+      <c r="B132" s="84">
         <v>17.14</v>
       </c>
-      <c r="C132" s="51" t="s">
+      <c r="C132" s="98" t="s">
         <v>370</v>
       </c>
       <c r="D132" s="43" t="s">
         <v>373</v>
       </c>
       <c r="E132" s="23"/>
-      <c r="F132" s="138" t="s">
+      <c r="F132" s="95" t="s">
         <v>374</v>
       </c>
       <c r="G132" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="H132" s="114"/>
+      <c r="H132" s="82"/>
     </row>
     <row r="133" spans="2:8" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="119">
+      <c r="B133" s="84">
         <v>17.149999999999999</v>
       </c>
-      <c r="C133" s="71"/>
+      <c r="C133" s="99"/>
       <c r="D133" s="43" t="s">
         <v>285</v>
       </c>
@@ -5769,13 +5769,13 @@
       <c r="G133" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="H133" s="114"/>
+      <c r="H133" s="82"/>
     </row>
     <row r="134" spans="2:8" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="119">
+      <c r="B134" s="84">
         <v>17.16</v>
       </c>
-      <c r="C134" s="52"/>
+      <c r="C134" s="100"/>
       <c r="D134" s="43" t="s">
         <v>361</v>
       </c>
@@ -5786,32 +5786,32 @@
       <c r="G134" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="H134" s="114"/>
+      <c r="H134" s="82"/>
     </row>
     <row r="135" spans="2:8" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="119">
+      <c r="B135" s="84">
         <v>17.170000000000002</v>
       </c>
-      <c r="C135" s="51" t="s">
+      <c r="C135" s="98" t="s">
         <v>371</v>
       </c>
       <c r="D135" s="43" t="s">
         <v>357</v>
       </c>
       <c r="E135" s="23"/>
-      <c r="F135" s="138" t="s">
+      <c r="F135" s="95" t="s">
         <v>358</v>
       </c>
       <c r="G135" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="H135" s="114"/>
+      <c r="H135" s="82"/>
     </row>
     <row r="136" spans="2:8" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="119">
+      <c r="B136" s="84">
         <v>17.18</v>
       </c>
-      <c r="C136" s="71"/>
+      <c r="C136" s="99"/>
       <c r="D136" s="43" t="s">
         <v>285</v>
       </c>
@@ -5822,13 +5822,13 @@
       <c r="G136" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="H136" s="114"/>
+      <c r="H136" s="82"/>
     </row>
     <row r="137" spans="2:8" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="119">
+      <c r="B137" s="84">
         <v>17.190000000000001</v>
       </c>
-      <c r="C137" s="52"/>
+      <c r="C137" s="100"/>
       <c r="D137" s="43" t="s">
         <v>364</v>
       </c>
@@ -5839,10 +5839,10 @@
       <c r="G137" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="H137" s="114"/>
+      <c r="H137" s="82"/>
     </row>
     <row r="138" spans="2:8" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="119">
+      <c r="B138" s="84">
         <v>17.2</v>
       </c>
       <c r="C138" s="46" t="s">
@@ -5858,32 +5858,32 @@
       <c r="G138" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="H138" s="114"/>
+      <c r="H138" s="82"/>
     </row>
     <row r="139" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B139" s="119">
+      <c r="B139" s="84">
         <v>17.21</v>
       </c>
-      <c r="C139" s="51" t="s">
+      <c r="C139" s="98" t="s">
         <v>381</v>
       </c>
       <c r="D139" s="43" t="s">
         <v>386</v>
       </c>
       <c r="E139" s="23"/>
-      <c r="F139" s="138" t="s">
+      <c r="F139" s="95" t="s">
         <v>388</v>
       </c>
       <c r="G139" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="H139" s="114"/>
+      <c r="H139" s="82"/>
     </row>
     <row r="140" spans="2:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B140" s="119">
+      <c r="B140" s="84">
         <v>17.22</v>
       </c>
-      <c r="C140" s="71"/>
+      <c r="C140" s="99"/>
       <c r="D140" s="43" t="s">
         <v>285</v>
       </c>
@@ -5894,13 +5894,13 @@
       <c r="G140" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="H140" s="114"/>
+      <c r="H140" s="82"/>
     </row>
     <row r="141" spans="2:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="B141" s="119">
+      <c r="B141" s="84">
         <v>17.23</v>
       </c>
-      <c r="C141" s="52"/>
+      <c r="C141" s="100"/>
       <c r="D141" s="43" t="s">
         <v>361</v>
       </c>
@@ -5911,32 +5911,32 @@
       <c r="G141" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="H141" s="114"/>
+      <c r="H141" s="82"/>
     </row>
     <row r="142" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B142" s="119">
+      <c r="B142" s="84">
         <v>17.239999999999998</v>
       </c>
-      <c r="C142" s="51" t="s">
+      <c r="C142" s="98" t="s">
         <v>382</v>
       </c>
       <c r="D142" s="43" t="s">
         <v>385</v>
       </c>
       <c r="E142" s="23"/>
-      <c r="F142" s="138" t="s">
+      <c r="F142" s="95" t="s">
         <v>358</v>
       </c>
       <c r="G142" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="H142" s="114"/>
+      <c r="H142" s="82"/>
     </row>
     <row r="143" spans="2:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B143" s="119">
+      <c r="B143" s="84">
         <v>17.25</v>
       </c>
-      <c r="C143" s="71"/>
+      <c r="C143" s="99"/>
       <c r="D143" s="43" t="s">
         <v>285</v>
       </c>
@@ -5947,13 +5947,13 @@
       <c r="G143" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="H143" s="114"/>
+      <c r="H143" s="82"/>
     </row>
     <row r="144" spans="2:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="B144" s="119">
+      <c r="B144" s="84">
         <v>17.260000000000002</v>
       </c>
-      <c r="C144" s="52"/>
+      <c r="C144" s="100"/>
       <c r="D144" s="43" t="s">
         <v>364</v>
       </c>
@@ -5964,10 +5964,10 @@
       <c r="G144" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="H144" s="114"/>
+      <c r="H144" s="82"/>
     </row>
     <row r="145" spans="2:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="B145" s="119">
+      <c r="B145" s="84">
         <v>17.27</v>
       </c>
       <c r="C145" s="46" t="s">
@@ -5983,13 +5983,13 @@
       <c r="G145" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="H145" s="114"/>
+      <c r="H145" s="82"/>
     </row>
     <row r="146" spans="2:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="B146" s="119">
+      <c r="B146" s="84">
         <v>17.28</v>
       </c>
-      <c r="C146" s="51" t="s">
+      <c r="C146" s="98" t="s">
         <v>197</v>
       </c>
       <c r="D146" s="43" t="s">
@@ -6002,13 +6002,13 @@
       <c r="G146" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="H146" s="114"/>
+      <c r="H146" s="82"/>
     </row>
     <row r="147" spans="2:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="B147" s="119">
+      <c r="B147" s="84">
         <v>17.29</v>
       </c>
-      <c r="C147" s="71"/>
+      <c r="C147" s="99"/>
       <c r="D147" s="43" t="s">
         <v>285</v>
       </c>
@@ -6019,13 +6019,13 @@
       <c r="G147" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="H147" s="114"/>
+      <c r="H147" s="82"/>
     </row>
     <row r="148" spans="2:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="B148" s="119">
+      <c r="B148" s="84">
         <v>17.3</v>
       </c>
-      <c r="C148" s="71"/>
+      <c r="C148" s="99"/>
       <c r="D148" s="43" t="s">
         <v>361</v>
       </c>
@@ -6036,13 +6036,13 @@
       <c r="G148" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="H148" s="114"/>
+      <c r="H148" s="82"/>
     </row>
     <row r="149" spans="2:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="B149" s="119">
+      <c r="B149" s="84">
         <v>17.309999999999999</v>
       </c>
-      <c r="C149" s="71"/>
+      <c r="C149" s="99"/>
       <c r="D149" s="43" t="s">
         <v>400</v>
       </c>
@@ -6053,13 +6053,13 @@
       <c r="G149" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="H149" s="114"/>
+      <c r="H149" s="82"/>
     </row>
     <row r="150" spans="2:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="B150" s="119">
+      <c r="B150" s="84">
         <v>17.32</v>
       </c>
-      <c r="C150" s="71"/>
+      <c r="C150" s="99"/>
       <c r="D150" s="43" t="s">
         <v>402</v>
       </c>
@@ -6070,13 +6070,13 @@
       <c r="G150" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="H150" s="114"/>
+      <c r="H150" s="82"/>
     </row>
     <row r="151" spans="2:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="B151" s="119">
+      <c r="B151" s="84">
         <v>17.329999999999998</v>
       </c>
-      <c r="C151" s="52"/>
+      <c r="C151" s="100"/>
       <c r="D151" s="43" t="s">
         <v>405</v>
       </c>
@@ -6087,10 +6087,10 @@
       <c r="G151" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="H151" s="114"/>
+      <c r="H151" s="82"/>
     </row>
     <row r="152" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="133">
+      <c r="B152" s="93">
         <v>17.34</v>
       </c>
       <c r="C152" s="11" t="s">
@@ -6106,32 +6106,32 @@
       <c r="G152" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H152" s="134"/>
+      <c r="H152" s="94"/>
     </row>
     <row r="153" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="139"/>
-      <c r="C153" s="140"/>
-      <c r="D153" s="140"/>
-      <c r="E153" s="140"/>
-      <c r="F153" s="140"/>
-      <c r="G153" s="140"/>
-      <c r="H153" s="141"/>
+      <c r="B153" s="127"/>
+      <c r="C153" s="128"/>
+      <c r="D153" s="128"/>
+      <c r="E153" s="128"/>
+      <c r="F153" s="128"/>
+      <c r="G153" s="128"/>
+      <c r="H153" s="129"/>
     </row>
     <row r="154" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B154" s="103">
+      <c r="B154" s="73">
         <v>18</v>
       </c>
-      <c r="C154" s="61" t="s">
+      <c r="C154" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="D154" s="62"/>
-      <c r="E154" s="62"/>
-      <c r="F154" s="62"/>
-      <c r="G154" s="62"/>
-      <c r="H154" s="112"/>
+      <c r="D154" s="113"/>
+      <c r="E154" s="113"/>
+      <c r="F154" s="113"/>
+      <c r="G154" s="113"/>
+      <c r="H154" s="114"/>
     </row>
     <row r="155" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B155" s="84">
+      <c r="B155" s="56">
         <v>18.100000000000001</v>
       </c>
       <c r="C155" s="4" t="s">
@@ -6147,10 +6147,10 @@
       <c r="G155" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="H155" s="99"/>
+      <c r="H155" s="71"/>
     </row>
     <row r="156" spans="2:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="B156" s="84">
+      <c r="B156" s="56">
         <v>18.2</v>
       </c>
       <c r="C156" s="4" t="s">
@@ -6166,13 +6166,13 @@
       <c r="G156" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="H156" s="99"/>
+      <c r="H156" s="71"/>
     </row>
     <row r="157" spans="2:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="B157" s="84">
+      <c r="B157" s="56">
         <v>18.3</v>
       </c>
-      <c r="C157" s="51" t="s">
+      <c r="C157" s="98" t="s">
         <v>284</v>
       </c>
       <c r="D157" s="43" t="s">
@@ -6185,13 +6185,13 @@
       <c r="G157" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="H157" s="99"/>
+      <c r="H157" s="71"/>
     </row>
     <row r="158" spans="2:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B158" s="84">
+      <c r="B158" s="56">
         <v>18.399999999999999</v>
       </c>
-      <c r="C158" s="71"/>
+      <c r="C158" s="99"/>
       <c r="D158" s="43" t="s">
         <v>285</v>
       </c>
@@ -6202,13 +6202,13 @@
       <c r="G158" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="H158" s="99"/>
+      <c r="H158" s="71"/>
     </row>
     <row r="159" spans="2:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="B159" s="84">
+      <c r="B159" s="56">
         <v>18.5</v>
       </c>
-      <c r="C159" s="71"/>
+      <c r="C159" s="99"/>
       <c r="D159" s="43" t="s">
         <v>288</v>
       </c>
@@ -6219,13 +6219,13 @@
       <c r="G159" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="H159" s="99"/>
+      <c r="H159" s="71"/>
     </row>
     <row r="160" spans="2:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="B160" s="84">
+      <c r="B160" s="56">
         <v>18.600000000000001</v>
       </c>
-      <c r="C160" s="71"/>
+      <c r="C160" s="99"/>
       <c r="D160" s="43" t="s">
         <v>290</v>
       </c>
@@ -6236,13 +6236,13 @@
       <c r="G160" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="H160" s="99"/>
+      <c r="H160" s="71"/>
     </row>
     <row r="161" spans="2:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="B161" s="84">
+      <c r="B161" s="56">
         <v>18.7</v>
       </c>
-      <c r="C161" s="52"/>
+      <c r="C161" s="100"/>
       <c r="D161" s="43" t="s">
         <v>292</v>
       </c>
@@ -6253,13 +6253,13 @@
       <c r="G161" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="H161" s="99"/>
+      <c r="H161" s="71"/>
     </row>
     <row r="162" spans="2:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="B162" s="84">
+      <c r="B162" s="56">
         <v>18.8</v>
       </c>
-      <c r="C162" s="51" t="s">
+      <c r="C162" s="98" t="s">
         <v>299</v>
       </c>
       <c r="D162" s="43" t="s">
@@ -6272,13 +6272,13 @@
       <c r="G162" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="H162" s="99"/>
+      <c r="H162" s="71"/>
     </row>
     <row r="163" spans="2:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="B163" s="84">
+      <c r="B163" s="56">
         <v>18.899999999999999</v>
       </c>
-      <c r="C163" s="71"/>
+      <c r="C163" s="99"/>
       <c r="D163" s="43" t="s">
         <v>285</v>
       </c>
@@ -6289,13 +6289,13 @@
       <c r="G163" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="H163" s="99"/>
+      <c r="H163" s="71"/>
     </row>
     <row r="164" spans="2:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="B164" s="119">
+      <c r="B164" s="84">
         <v>18.100000000000001</v>
       </c>
-      <c r="C164" s="71"/>
+      <c r="C164" s="99"/>
       <c r="D164" s="43" t="s">
         <v>288</v>
       </c>
@@ -6306,13 +6306,13 @@
       <c r="G164" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="H164" s="99"/>
+      <c r="H164" s="71"/>
     </row>
     <row r="165" spans="2:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="B165" s="119">
+      <c r="B165" s="84">
         <v>18.11</v>
       </c>
-      <c r="C165" s="71"/>
+      <c r="C165" s="99"/>
       <c r="D165" s="43" t="s">
         <v>290</v>
       </c>
@@ -6323,13 +6323,13 @@
       <c r="G165" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="H165" s="99"/>
+      <c r="H165" s="71"/>
     </row>
     <row r="166" spans="2:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="B166" s="119">
+      <c r="B166" s="84">
         <v>18.12</v>
       </c>
-      <c r="C166" s="52"/>
+      <c r="C166" s="100"/>
       <c r="D166" s="43" t="s">
         <v>292</v>
       </c>
@@ -6340,10 +6340,10 @@
       <c r="G166" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="H166" s="99"/>
+      <c r="H166" s="71"/>
     </row>
     <row r="167" spans="2:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="B167" s="119">
+      <c r="B167" s="84">
         <v>18.13</v>
       </c>
       <c r="C167" s="46" t="s">
@@ -6359,10 +6359,10 @@
       <c r="G167" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="H167" s="99"/>
+      <c r="H167" s="71"/>
     </row>
     <row r="168" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="120">
+      <c r="B168" s="85">
         <v>18.14</v>
       </c>
       <c r="C168" s="30" t="s">
@@ -6378,32 +6378,32 @@
       <c r="G168" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H168" s="97"/>
+      <c r="H168" s="69"/>
     </row>
     <row r="169" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B169" s="101"/>
-      <c r="C169" s="73"/>
-      <c r="D169" s="73"/>
-      <c r="E169" s="73"/>
-      <c r="F169" s="73"/>
-      <c r="G169" s="73"/>
-      <c r="H169" s="102"/>
+      <c r="B169" s="106"/>
+      <c r="C169" s="107"/>
+      <c r="D169" s="107"/>
+      <c r="E169" s="107"/>
+      <c r="F169" s="107"/>
+      <c r="G169" s="107"/>
+      <c r="H169" s="108"/>
     </row>
     <row r="170" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B170" s="103">
+      <c r="B170" s="73">
         <v>19</v>
       </c>
-      <c r="C170" s="61" t="s">
+      <c r="C170" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="D170" s="62"/>
-      <c r="E170" s="62"/>
-      <c r="F170" s="62"/>
-      <c r="G170" s="62"/>
-      <c r="H170" s="112"/>
+      <c r="D170" s="113"/>
+      <c r="E170" s="113"/>
+      <c r="F170" s="113"/>
+      <c r="G170" s="113"/>
+      <c r="H170" s="114"/>
     </row>
     <row r="171" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B171" s="84">
+      <c r="B171" s="56">
         <v>19.100000000000001</v>
       </c>
       <c r="C171" s="4" t="s">
@@ -6412,17 +6412,17 @@
       <c r="D171" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E171" s="77"/>
+      <c r="E171" s="49"/>
       <c r="F171" s="23" t="s">
         <v>273</v>
       </c>
       <c r="G171" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="H171" s="99"/>
+      <c r="H171" s="71"/>
     </row>
     <row r="172" spans="2:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="B172" s="121">
+      <c r="B172" s="86">
         <v>19.2</v>
       </c>
       <c r="C172" s="4" t="s">
@@ -6438,13 +6438,13 @@
       <c r="G172" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="H172" s="99"/>
+      <c r="H172" s="71"/>
     </row>
     <row r="173" spans="2:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="B173" s="84">
+      <c r="B173" s="56">
         <v>19.3</v>
       </c>
-      <c r="C173" s="51" t="s">
+      <c r="C173" s="98" t="s">
         <v>316</v>
       </c>
       <c r="D173" s="43" t="s">
@@ -6457,13 +6457,13 @@
       <c r="G173" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="H173" s="99"/>
+      <c r="H173" s="71"/>
     </row>
     <row r="174" spans="2:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="B174" s="121">
+      <c r="B174" s="86">
         <v>19.399999999999999</v>
       </c>
-      <c r="C174" s="71"/>
+      <c r="C174" s="99"/>
       <c r="D174" s="43" t="s">
         <v>285</v>
       </c>
@@ -6474,13 +6474,13 @@
       <c r="G174" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="H174" s="99"/>
+      <c r="H174" s="71"/>
     </row>
     <row r="175" spans="2:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="B175" s="84">
+      <c r="B175" s="56">
         <v>19.5</v>
       </c>
-      <c r="C175" s="52"/>
+      <c r="C175" s="100"/>
       <c r="D175" s="43" t="s">
         <v>292</v>
       </c>
@@ -6491,13 +6491,13 @@
       <c r="G175" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="H175" s="99"/>
+      <c r="H175" s="71"/>
     </row>
     <row r="176" spans="2:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="B176" s="121">
+      <c r="B176" s="86">
         <v>19.600000000000001</v>
       </c>
-      <c r="C176" s="51" t="s">
+      <c r="C176" s="98" t="s">
         <v>324</v>
       </c>
       <c r="D176" s="43" t="s">
@@ -6510,13 +6510,13 @@
       <c r="G176" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="H176" s="99"/>
+      <c r="H176" s="71"/>
     </row>
     <row r="177" spans="2:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="B177" s="84">
+      <c r="B177" s="56">
         <v>19.7</v>
       </c>
-      <c r="C177" s="71"/>
+      <c r="C177" s="99"/>
       <c r="D177" s="43" t="s">
         <v>285</v>
       </c>
@@ -6527,13 +6527,13 @@
       <c r="G177" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="H177" s="99"/>
+      <c r="H177" s="71"/>
     </row>
     <row r="178" spans="2:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="B178" s="121">
+      <c r="B178" s="86">
         <v>19.8</v>
       </c>
-      <c r="C178" s="52"/>
+      <c r="C178" s="100"/>
       <c r="D178" s="43" t="s">
         <v>292</v>
       </c>
@@ -6544,10 +6544,10 @@
       <c r="G178" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="H178" s="99"/>
+      <c r="H178" s="71"/>
     </row>
     <row r="179" spans="2:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="B179" s="84">
+      <c r="B179" s="56">
         <v>19.899999999999999</v>
       </c>
       <c r="C179" s="46" t="s">
@@ -6563,13 +6563,13 @@
       <c r="G179" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="H179" s="99"/>
+      <c r="H179" s="71"/>
     </row>
     <row r="180" spans="2:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B180" s="119">
+      <c r="B180" s="84">
         <v>19.100000000000001</v>
       </c>
-      <c r="C180" s="51" t="s">
+      <c r="C180" s="98" t="s">
         <v>335</v>
       </c>
       <c r="D180" s="43" t="s">
@@ -6582,13 +6582,13 @@
       <c r="G180" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="H180" s="99"/>
+      <c r="H180" s="71"/>
     </row>
     <row r="181" spans="2:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="B181" s="119">
+      <c r="B181" s="84">
         <v>19.11</v>
       </c>
-      <c r="C181" s="71"/>
+      <c r="C181" s="99"/>
       <c r="D181" s="43" t="s">
         <v>285</v>
       </c>
@@ -6599,13 +6599,13 @@
       <c r="G181" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="H181" s="99"/>
+      <c r="H181" s="71"/>
     </row>
     <row r="182" spans="2:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="B182" s="119">
+      <c r="B182" s="84">
         <v>19.12</v>
       </c>
-      <c r="C182" s="52"/>
+      <c r="C182" s="100"/>
       <c r="D182" s="43" t="s">
         <v>340</v>
       </c>
@@ -6616,13 +6616,13 @@
       <c r="G182" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="H182" s="99"/>
+      <c r="H182" s="71"/>
     </row>
     <row r="183" spans="2:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="B183" s="119">
+      <c r="B183" s="84">
         <v>19.13</v>
       </c>
-      <c r="C183" s="51" t="s">
+      <c r="C183" s="98" t="s">
         <v>343</v>
       </c>
       <c r="D183" s="43" t="s">
@@ -6635,13 +6635,13 @@
       <c r="G183" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="H183" s="99"/>
+      <c r="H183" s="71"/>
     </row>
     <row r="184" spans="2:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="B184" s="119">
+      <c r="B184" s="84">
         <v>19.14</v>
       </c>
-      <c r="C184" s="52"/>
+      <c r="C184" s="100"/>
       <c r="D184" s="43" t="s">
         <v>340</v>
       </c>
@@ -6652,13 +6652,13 @@
       <c r="G184" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="H184" s="99"/>
+      <c r="H184" s="71"/>
     </row>
     <row r="185" spans="2:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B185" s="119">
+      <c r="B185" s="84">
         <v>19.149999999999999</v>
       </c>
-      <c r="C185" s="72" t="s">
+      <c r="C185" s="47" t="s">
         <v>347</v>
       </c>
       <c r="D185" s="43" t="s">
@@ -6671,10 +6671,10 @@
       <c r="G185" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="H185" s="99"/>
+      <c r="H185" s="71"/>
     </row>
     <row r="186" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="133">
+      <c r="B186" s="93">
         <v>19.16</v>
       </c>
       <c r="C186" s="11" t="s">
@@ -6690,32 +6690,32 @@
       <c r="G186" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H186" s="134"/>
+      <c r="H186" s="94"/>
     </row>
     <row r="187" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B187" s="135"/>
-      <c r="C187" s="136"/>
-      <c r="D187" s="136"/>
-      <c r="E187" s="136"/>
-      <c r="F187" s="136"/>
-      <c r="G187" s="136"/>
-      <c r="H187" s="137"/>
+      <c r="B187" s="130"/>
+      <c r="C187" s="131"/>
+      <c r="D187" s="131"/>
+      <c r="E187" s="131"/>
+      <c r="F187" s="131"/>
+      <c r="G187" s="131"/>
+      <c r="H187" s="132"/>
     </row>
     <row r="188" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B188" s="117">
+      <c r="B188" s="83">
         <v>20</v>
       </c>
-      <c r="C188" s="53" t="s">
+      <c r="C188" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="D188" s="54"/>
-      <c r="E188" s="54"/>
-      <c r="F188" s="54"/>
-      <c r="G188" s="54"/>
-      <c r="H188" s="118"/>
+      <c r="D188" s="116"/>
+      <c r="E188" s="116"/>
+      <c r="F188" s="116"/>
+      <c r="G188" s="116"/>
+      <c r="H188" s="117"/>
     </row>
     <row r="189" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B189" s="84">
+      <c r="B189" s="56">
         <v>20.100000000000001</v>
       </c>
       <c r="C189" s="4" t="s">
@@ -6731,10 +6731,10 @@
       <c r="G189" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="H189" s="99"/>
+      <c r="H189" s="71"/>
     </row>
     <row r="190" spans="2:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="B190" s="84">
+      <c r="B190" s="56">
         <v>20.2</v>
       </c>
       <c r="C190" s="4" t="s">
@@ -6750,32 +6750,32 @@
       <c r="G190" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="H190" s="99"/>
+      <c r="H190" s="71"/>
     </row>
     <row r="191" spans="2:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="84">
+      <c r="B191" s="56">
         <v>20.3</v>
       </c>
-      <c r="C191" s="51" t="s">
+      <c r="C191" s="98" t="s">
         <v>408</v>
       </c>
       <c r="D191" s="43" t="s">
         <v>409</v>
       </c>
       <c r="E191" s="23"/>
-      <c r="F191" s="142" t="s">
+      <c r="F191" s="96" t="s">
         <v>411</v>
       </c>
       <c r="G191" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="H191" s="99"/>
+      <c r="H191" s="71"/>
     </row>
     <row r="192" spans="2:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="84">
+      <c r="B192" s="56">
         <v>20.399999999999999</v>
       </c>
-      <c r="C192" s="71"/>
+      <c r="C192" s="99"/>
       <c r="D192" s="43" t="s">
         <v>285</v>
       </c>
@@ -6786,13 +6786,13 @@
       <c r="G192" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="H192" s="99"/>
+      <c r="H192" s="71"/>
     </row>
     <row r="193" spans="2:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="84">
+      <c r="B193" s="56">
         <v>20.5</v>
       </c>
-      <c r="C193" s="71"/>
+      <c r="C193" s="99"/>
       <c r="D193" s="43" t="s">
         <v>288</v>
       </c>
@@ -6803,13 +6803,13 @@
       <c r="G193" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="H193" s="99"/>
+      <c r="H193" s="71"/>
     </row>
     <row r="194" spans="2:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B194" s="84">
+      <c r="B194" s="56">
         <v>20.6</v>
       </c>
-      <c r="C194" s="71"/>
+      <c r="C194" s="99"/>
       <c r="D194" s="43" t="s">
         <v>290</v>
       </c>
@@ -6820,13 +6820,13 @@
       <c r="G194" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="H194" s="99"/>
+      <c r="H194" s="71"/>
     </row>
     <row r="195" spans="2:8" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B195" s="84">
+      <c r="B195" s="56">
         <v>20.7</v>
       </c>
-      <c r="C195" s="52"/>
+      <c r="C195" s="100"/>
       <c r="D195" s="43" t="s">
         <v>292</v>
       </c>
@@ -6837,13 +6837,13 @@
       <c r="G195" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="H195" s="99"/>
+      <c r="H195" s="71"/>
     </row>
     <row r="196" spans="2:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B196" s="84">
+      <c r="B196" s="56">
         <v>20.8</v>
       </c>
-      <c r="C196" s="51" t="s">
+      <c r="C196" s="98" t="s">
         <v>412</v>
       </c>
       <c r="D196" s="43" t="s">
@@ -6856,13 +6856,13 @@
       <c r="G196" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="H196" s="99"/>
+      <c r="H196" s="71"/>
     </row>
     <row r="197" spans="2:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="84">
+      <c r="B197" s="56">
         <v>20.9</v>
       </c>
-      <c r="C197" s="71"/>
+      <c r="C197" s="99"/>
       <c r="D197" s="43" t="s">
         <v>285</v>
       </c>
@@ -6873,13 +6873,13 @@
       <c r="G197" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="H197" s="99"/>
+      <c r="H197" s="71"/>
     </row>
     <row r="198" spans="2:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B198" s="119">
+      <c r="B198" s="84">
         <v>20.100000000000001</v>
       </c>
-      <c r="C198" s="52"/>
+      <c r="C198" s="100"/>
       <c r="D198" s="43" t="s">
         <v>292</v>
       </c>
@@ -6890,10 +6890,10 @@
       <c r="G198" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="H198" s="99"/>
+      <c r="H198" s="71"/>
     </row>
     <row r="199" spans="2:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B199" s="119">
+      <c r="B199" s="84">
         <v>20.11</v>
       </c>
       <c r="C199" s="46" t="s">
@@ -6909,10 +6909,10 @@
       <c r="G199" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="H199" s="99"/>
+      <c r="H199" s="71"/>
     </row>
     <row r="200" spans="2:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B200" s="119">
+      <c r="B200" s="84">
         <v>20.12</v>
       </c>
       <c r="C200" s="4" t="s">
@@ -6922,14 +6922,14 @@
         <v>201</v>
       </c>
       <c r="E200" s="8"/>
-      <c r="F200" s="142"/>
+      <c r="F200" s="96"/>
       <c r="G200" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="H200" s="99"/>
+      <c r="H200" s="71"/>
     </row>
     <row r="201" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B201" s="119">
+      <c r="B201" s="84">
         <v>20.13</v>
       </c>
       <c r="C201" s="4" t="s">
@@ -6945,32 +6945,32 @@
       <c r="G201" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H201" s="94"/>
+      <c r="H201" s="66"/>
     </row>
     <row r="202" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B202" s="122"/>
-      <c r="C202" s="47"/>
-      <c r="D202" s="47"/>
-      <c r="E202" s="47"/>
-      <c r="F202" s="47"/>
-      <c r="G202" s="47"/>
-      <c r="H202" s="123"/>
+      <c r="B202" s="137"/>
+      <c r="C202" s="138"/>
+      <c r="D202" s="138"/>
+      <c r="E202" s="138"/>
+      <c r="F202" s="138"/>
+      <c r="G202" s="138"/>
+      <c r="H202" s="139"/>
     </row>
     <row r="203" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B203" s="117">
+      <c r="B203" s="83">
         <v>21</v>
       </c>
-      <c r="C203" s="53" t="s">
+      <c r="C203" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="D203" s="54"/>
-      <c r="E203" s="54"/>
-      <c r="F203" s="54"/>
-      <c r="G203" s="54"/>
-      <c r="H203" s="118"/>
+      <c r="D203" s="116"/>
+      <c r="E203" s="116"/>
+      <c r="F203" s="116"/>
+      <c r="G203" s="116"/>
+      <c r="H203" s="117"/>
     </row>
     <row r="204" spans="2:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B204" s="84">
+      <c r="B204" s="56">
         <v>21.1</v>
       </c>
       <c r="C204" s="4" t="s">
@@ -6986,13 +6986,13 @@
       <c r="G204" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="H204" s="99"/>
+      <c r="H204" s="71"/>
     </row>
     <row r="205" spans="2:8" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B205" s="84">
+      <c r="B205" s="56">
         <v>21.2</v>
       </c>
-      <c r="C205" s="51" t="s">
+      <c r="C205" s="98" t="s">
         <v>426</v>
       </c>
       <c r="D205" s="43" t="s">
@@ -7005,11 +7005,13 @@
       <c r="G205" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="H205" s="99"/>
+      <c r="H205" s="71"/>
     </row>
     <row r="206" spans="2:8" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B206" s="84"/>
-      <c r="C206" s="71"/>
+      <c r="B206" s="56">
+        <v>21.3</v>
+      </c>
+      <c r="C206" s="99"/>
       <c r="D206" s="43" t="s">
         <v>285</v>
       </c>
@@ -7020,11 +7022,13 @@
       <c r="G206" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="H206" s="99"/>
+      <c r="H206" s="71"/>
     </row>
     <row r="207" spans="2:8" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B207" s="84"/>
-      <c r="C207" s="52"/>
+      <c r="B207" s="56">
+        <v>21.4</v>
+      </c>
+      <c r="C207" s="100"/>
       <c r="D207" s="43" t="s">
         <v>361</v>
       </c>
@@ -7035,10 +7039,12 @@
       <c r="G207" s="9" t="s">
         <v>429</v>
       </c>
-      <c r="H207" s="99"/>
+      <c r="H207" s="71"/>
     </row>
     <row r="208" spans="2:8" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B208" s="84"/>
+      <c r="B208" s="56">
+        <v>21.5</v>
+      </c>
       <c r="C208" s="4" t="s">
         <v>431</v>
       </c>
@@ -7052,11 +7058,13 @@
       <c r="G208" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="H208" s="99"/>
+      <c r="H208" s="71"/>
     </row>
     <row r="209" spans="2:8" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="84"/>
-      <c r="C209" s="51" t="s">
+      <c r="B209" s="56">
+        <v>21.6</v>
+      </c>
+      <c r="C209" s="98" t="s">
         <v>430</v>
       </c>
       <c r="D209" s="43" t="s">
@@ -7069,11 +7077,13 @@
       <c r="G209" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="H209" s="99"/>
+      <c r="H209" s="71"/>
     </row>
     <row r="210" spans="2:8" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B210" s="84"/>
-      <c r="C210" s="71"/>
+      <c r="B210" s="56">
+        <v>21.7</v>
+      </c>
+      <c r="C210" s="99"/>
       <c r="D210" s="43" t="s">
         <v>285</v>
       </c>
@@ -7084,11 +7094,13 @@
       <c r="G210" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="H210" s="99"/>
+      <c r="H210" s="71"/>
     </row>
     <row r="211" spans="2:8" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="84"/>
-      <c r="C211" s="71"/>
+      <c r="B211" s="56">
+        <v>21.8</v>
+      </c>
+      <c r="C211" s="99"/>
       <c r="D211" s="43" t="s">
         <v>438</v>
       </c>
@@ -7099,11 +7111,13 @@
       <c r="G211" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="H211" s="99"/>
+      <c r="H211" s="71"/>
     </row>
     <row r="212" spans="2:8" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B212" s="84"/>
-      <c r="C212" s="52"/>
+      <c r="B212" s="56">
+        <v>21.9</v>
+      </c>
+      <c r="C212" s="100"/>
       <c r="D212" s="43" t="s">
         <v>340</v>
       </c>
@@ -7114,10 +7128,12 @@
       <c r="G212" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="H212" s="99"/>
+      <c r="H212" s="71"/>
     </row>
     <row r="213" spans="2:8" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B213" s="84"/>
+      <c r="B213" s="84">
+        <v>21.1</v>
+      </c>
       <c r="C213" s="46" t="s">
         <v>440</v>
       </c>
@@ -7131,11 +7147,13 @@
       <c r="G213" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="H213" s="99"/>
+      <c r="H213" s="71"/>
     </row>
     <row r="214" spans="2:8" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B214" s="84"/>
-      <c r="C214" s="57" t="s">
+      <c r="B214" s="84">
+        <v>21.11</v>
+      </c>
+      <c r="C214" s="101" t="s">
         <v>205</v>
       </c>
       <c r="D214" s="43" t="s">
@@ -7148,13 +7166,13 @@
       <c r="G214" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="H214" s="99"/>
+      <c r="H214" s="71"/>
     </row>
     <row r="215" spans="2:8" ht="126" x14ac:dyDescent="0.25">
       <c r="B215" s="84">
-        <v>21.3</v>
-      </c>
-      <c r="C215" s="58"/>
+        <v>21.12</v>
+      </c>
+      <c r="C215" s="103"/>
       <c r="D215" s="43" t="s">
         <v>285</v>
       </c>
@@ -7165,11 +7183,13 @@
       <c r="G215" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="H215" s="99"/>
+      <c r="H215" s="71"/>
     </row>
     <row r="216" spans="2:8" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="B216" s="84"/>
-      <c r="C216" s="59"/>
+      <c r="B216" s="84">
+        <v>21.13</v>
+      </c>
+      <c r="C216" s="102"/>
       <c r="D216" s="43" t="s">
         <v>340</v>
       </c>
@@ -7180,11 +7200,11 @@
       <c r="G216" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="H216" s="99"/>
+      <c r="H216" s="71"/>
     </row>
     <row r="217" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B217" s="84">
-        <v>21.4</v>
+        <v>21.14</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>9</v>
@@ -7199,35 +7219,35 @@
       <c r="G217" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H217" s="94"/>
+      <c r="H217" s="66"/>
     </row>
     <row r="218" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B218" s="122"/>
-      <c r="C218" s="47"/>
-      <c r="D218" s="47"/>
-      <c r="E218" s="47"/>
-      <c r="F218" s="47"/>
-      <c r="G218" s="47"/>
-      <c r="H218" s="123"/>
+      <c r="B218" s="137"/>
+      <c r="C218" s="138"/>
+      <c r="D218" s="138"/>
+      <c r="E218" s="138"/>
+      <c r="F218" s="138"/>
+      <c r="G218" s="138"/>
+      <c r="H218" s="139"/>
     </row>
     <row r="219" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B219" s="124">
+      <c r="B219" s="87">
         <v>22</v>
       </c>
-      <c r="C219" s="53" t="s">
+      <c r="C219" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="D219" s="54"/>
-      <c r="E219" s="54"/>
-      <c r="F219" s="54"/>
-      <c r="G219" s="54"/>
-      <c r="H219" s="118"/>
+      <c r="D219" s="116"/>
+      <c r="E219" s="116"/>
+      <c r="F219" s="116"/>
+      <c r="G219" s="116"/>
+      <c r="H219" s="117"/>
     </row>
     <row r="220" spans="2:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="B220" s="84">
+      <c r="B220" s="56">
         <v>22.1</v>
       </c>
-      <c r="C220" s="57" t="s">
+      <c r="C220" s="101" t="s">
         <v>129</v>
       </c>
       <c r="D220" s="4" t="s">
@@ -7240,13 +7260,13 @@
       <c r="G220" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="H220" s="99"/>
+      <c r="H220" s="71"/>
     </row>
     <row r="221" spans="2:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="B221" s="98">
+      <c r="B221" s="70">
         <v>22.2</v>
       </c>
-      <c r="C221" s="58"/>
+      <c r="C221" s="103"/>
       <c r="D221" s="4" t="s">
         <v>281</v>
       </c>
@@ -7257,13 +7277,13 @@
       <c r="G221" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="H221" s="99"/>
+      <c r="H221" s="71"/>
     </row>
     <row r="222" spans="2:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="B222" s="84">
+      <c r="B222" s="56">
         <v>22.3</v>
       </c>
-      <c r="C222" s="59"/>
+      <c r="C222" s="102"/>
       <c r="D222" s="4" t="s">
         <v>280</v>
       </c>
@@ -7274,10 +7294,10 @@
       <c r="G222" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="H222" s="99"/>
+      <c r="H222" s="71"/>
     </row>
     <row r="223" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B223" s="98">
+      <c r="B223" s="70">
         <v>22.4</v>
       </c>
       <c r="C223" s="4" t="s">
@@ -7293,32 +7313,84 @@
       <c r="G223" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H223" s="94"/>
+      <c r="H223" s="66"/>
     </row>
     <row r="224" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B224" s="125"/>
-      <c r="C224" s="126"/>
-      <c r="D224" s="126"/>
-      <c r="E224" s="127"/>
-      <c r="F224" s="127"/>
-      <c r="G224" s="128"/>
-      <c r="H224" s="129"/>
+      <c r="B224" s="88"/>
+      <c r="C224" s="89"/>
+      <c r="D224" s="89"/>
+      <c r="E224" s="90"/>
+      <c r="F224" s="90"/>
+      <c r="G224" s="91"/>
+      <c r="H224" s="92"/>
     </row>
     <row r="225" spans="4:4" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="227" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D227" s="55"/>
+      <c r="D227" s="125"/>
     </row>
     <row r="228" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D228" s="56"/>
+      <c r="D228" s="126"/>
     </row>
     <row r="229" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D229" s="56"/>
+      <c r="D229" s="126"/>
     </row>
     <row r="230" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D230" s="56"/>
+      <c r="D230" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="B86:H86"/>
+    <mergeCell ref="B92:H92"/>
+    <mergeCell ref="B202:H202"/>
+    <mergeCell ref="B218:H218"/>
+    <mergeCell ref="F119:F121"/>
+    <mergeCell ref="F122:F124"/>
+    <mergeCell ref="C203:H203"/>
+    <mergeCell ref="C183:C184"/>
+    <mergeCell ref="C146:C151"/>
+    <mergeCell ref="C191:C195"/>
+    <mergeCell ref="C196:C198"/>
+    <mergeCell ref="C205:C207"/>
+    <mergeCell ref="C209:C212"/>
+    <mergeCell ref="C214:C216"/>
+    <mergeCell ref="C75:C78"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="B65:H65"/>
+    <mergeCell ref="B72:H72"/>
+    <mergeCell ref="B80:H80"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="B59:H59"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="D227:D230"/>
+    <mergeCell ref="C219:H219"/>
+    <mergeCell ref="C220:C222"/>
+    <mergeCell ref="C119:C121"/>
+    <mergeCell ref="C122:C124"/>
+    <mergeCell ref="C170:H170"/>
+    <mergeCell ref="C154:H154"/>
+    <mergeCell ref="C188:H188"/>
+    <mergeCell ref="B153:H153"/>
+    <mergeCell ref="B169:H169"/>
+    <mergeCell ref="B187:H187"/>
+    <mergeCell ref="C173:C175"/>
+    <mergeCell ref="C176:C178"/>
+    <mergeCell ref="C180:C182"/>
+    <mergeCell ref="C113:H113"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="C118:H118"/>
+    <mergeCell ref="C108:H108"/>
+    <mergeCell ref="B107:H107"/>
+    <mergeCell ref="B112:H112"/>
+    <mergeCell ref="B117:H117"/>
+    <mergeCell ref="C101:H101"/>
+    <mergeCell ref="C87:H87"/>
+    <mergeCell ref="C93:H93"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="B100:H100"/>
     <mergeCell ref="C16:C18"/>
     <mergeCell ref="C157:C161"/>
     <mergeCell ref="C162:C166"/>
@@ -7335,58 +7407,6 @@
     <mergeCell ref="C62:C63"/>
     <mergeCell ref="B29:H29"/>
     <mergeCell ref="C102:C103"/>
-    <mergeCell ref="C101:H101"/>
-    <mergeCell ref="C87:H87"/>
-    <mergeCell ref="C93:H93"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="C88:C90"/>
-    <mergeCell ref="C113:H113"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="C118:H118"/>
-    <mergeCell ref="C108:H108"/>
-    <mergeCell ref="B107:H107"/>
-    <mergeCell ref="B112:H112"/>
-    <mergeCell ref="B117:H117"/>
-    <mergeCell ref="D227:D230"/>
-    <mergeCell ref="C219:H219"/>
-    <mergeCell ref="C220:C222"/>
-    <mergeCell ref="C119:C121"/>
-    <mergeCell ref="C122:C124"/>
-    <mergeCell ref="C170:H170"/>
-    <mergeCell ref="C154:H154"/>
-    <mergeCell ref="C188:H188"/>
-    <mergeCell ref="B153:H153"/>
-    <mergeCell ref="B169:H169"/>
-    <mergeCell ref="B187:H187"/>
-    <mergeCell ref="C173:C175"/>
-    <mergeCell ref="C176:C178"/>
-    <mergeCell ref="C180:C182"/>
-    <mergeCell ref="B100:H100"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="B52:H52"/>
-    <mergeCell ref="B59:H59"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C75:C78"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="B65:H65"/>
-    <mergeCell ref="B72:H72"/>
-    <mergeCell ref="B80:H80"/>
-    <mergeCell ref="B86:H86"/>
-    <mergeCell ref="B92:H92"/>
-    <mergeCell ref="B202:H202"/>
-    <mergeCell ref="B218:H218"/>
-    <mergeCell ref="F119:F121"/>
-    <mergeCell ref="F122:F124"/>
-    <mergeCell ref="C203:H203"/>
-    <mergeCell ref="C183:C184"/>
-    <mergeCell ref="C146:C151"/>
-    <mergeCell ref="C191:C195"/>
-    <mergeCell ref="C196:C198"/>
-    <mergeCell ref="C205:C207"/>
-    <mergeCell ref="C209:C212"/>
-    <mergeCell ref="C214:C216"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" orientation="portrait" r:id="rId1"/>
